--- a/HLS_man/COP22/COP22_man_thailand.xlsx
+++ b/HLS_man/COP22/COP22_man_thailand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0466D2-20F1-4357-8919-1A0B154554B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E74ACA8-129F-4442-8040-3A00DF484DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
   <si>
     <t>COP22_thailand</t>
   </si>
@@ -85,15 +85,6 @@
   <si>
     <t>We need enhance d actions and a mbitions, on both 
 mitigation and adaptation, as well as support.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Mr. President,  
-5.</t>
-  </si>
-  <si>
-    <t>Countries of the Group of 77 and China have been the most affected by the adverse 
-impacts of climate change .</t>
   </si>
   <si>
     <t>Yet we are taking ambitious measures in line with our 
@@ -203,9 +194,6 @@
     <t>other(support)</t>
   </si>
   <si>
-    <t>other(support), other(measures)</t>
-  </si>
-  <si>
     <t>global</t>
   </si>
   <si>
@@ -215,30 +203,12 @@
     <t>prioritarain</t>
   </si>
   <si>
-    <t>Call on developed countries to help G77, indicating supporting the worse off, thus prioritarain</t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and principles, other(CBDR)</t>
-  </si>
-  <si>
     <t>measures</t>
   </si>
   <si>
     <t>prioritarian</t>
   </si>
   <si>
-    <t>Referring to the CBDR principle, defined as prioritarian</t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, other(capacity building)</t>
-  </si>
-  <si>
-    <t>libertarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">support should be based on individual country needs and support ownership, indicating a level of freedom that the support should provide. </t>
-  </si>
-  <si>
     <t>financial resources</t>
   </si>
   <si>
@@ -251,37 +221,64 @@
     <t>nearby future</t>
   </si>
   <si>
-    <t>multinational(developed countries</t>
-  </si>
-  <si>
-    <t>sufficientarian</t>
-  </si>
-  <si>
-    <t>policy target, adaptation, mitigation, moral responsiblity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developed countries need to increase their support set to a target of quadrupeling resources to allocation. </t>
-  </si>
-  <si>
-    <t>other(development), oter(technology)</t>
-  </si>
-  <si>
     <t>technological resource</t>
   </si>
   <si>
     <t>The redistribution of technology to developing countries, in order to help them advance; prioritarian.</t>
   </si>
   <si>
-    <t>UNFCCC agreements and principles, other(capacity building)</t>
-  </si>
-  <si>
     <t>technological resources, financial resources</t>
   </si>
   <si>
-    <t>prioritarian, egalitarian</t>
-  </si>
-  <si>
     <t xml:space="preserve">all developing countries should have acces to support provided by a multilateral supporting mechanism. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mr. President,  
+Countries of the Group of 77 and China have been the most affected by the adverse 
+impacts of climate change .</t>
+  </si>
+  <si>
+    <t>Call on developed countries to help, indicating supporting the worse off, thus prioritarain</t>
+  </si>
+  <si>
+    <t>other(transparancy), other(implementation)</t>
+  </si>
+  <si>
+    <t>egalitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing the need for a fair process and balance of all issues. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referring to the CBDR principle, taking equality of opportunity into account. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">support should be based on individual country needs and support ownership, referring to differences between countries, but also the need to help. </t>
+  </si>
+  <si>
+    <t>multinational(developing countries)</t>
+  </si>
+  <si>
+    <t>adaptation, mitigation</t>
+  </si>
+  <si>
+    <t>multinational(developed countries)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed countries need to increase their support , indicating value judgement that it is desirable to help the worst off. </t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t>development, technology</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles, CBDR</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
 </sst>
 </file>
@@ -651,18 +648,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -691,370 +688,380 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F18" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G18" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
         <v>45</v>
       </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="H22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="23" spans="1:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" t="s">
         <v>53</v>
       </c>
-      <c r="H18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/HLS_man/COP22/COP22_man_thailand.xlsx
+++ b/HLS_man/COP22/COP22_man_thailand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E74ACA8-129F-4442-8040-3A00DF484DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB2B25-A3D3-479A-A795-ACC1EE2ADB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>COP22_thailand</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -178,34 +172,15 @@
 I thank you Mr. President.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
- </t>
-  </si>
-  <si>
     <t>align with G77 and China</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>other(support)</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
     <t>prioritarain</t>
   </si>
   <si>
-    <t>measures</t>
-  </si>
-  <si>
     <t>prioritarian</t>
   </si>
   <si>
@@ -218,19 +193,10 @@
     <t>focus on the redistribution of financial resources to developing countries.</t>
   </si>
   <si>
-    <t>nearby future</t>
-  </si>
-  <si>
     <t>technological resource</t>
   </si>
   <si>
     <t>The redistribution of technology to developing countries, in order to help them advance; prioritarian.</t>
-  </si>
-  <si>
-    <t>technological resources, financial resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all developing countries should have acces to support provided by a multilateral supporting mechanism. </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -242,43 +208,70 @@
     <t>Call on developed countries to help, indicating supporting the worse off, thus prioritarain</t>
   </si>
   <si>
-    <t>other(transparancy), other(implementation)</t>
-  </si>
-  <si>
     <t>egalitarian</t>
   </si>
   <si>
     <t xml:space="preserve">Prescribing the need for a fair process and balance of all issues. </t>
   </si>
   <si>
-    <t xml:space="preserve">Referring to the CBDR principle, taking equality of opportunity into account. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">support should be based on individual country needs and support ownership, referring to differences between countries, but also the need to help. </t>
-  </si>
-  <si>
-    <t>multinational(developing countries)</t>
-  </si>
-  <si>
     <t>adaptation, mitigation</t>
   </si>
   <si>
-    <t>multinational(developed countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developed countries need to increase their support , indicating value judgement that it is desirable to help the worst off. </t>
-  </si>
-  <si>
     <t>UNFCCC agreements and principles</t>
   </si>
   <si>
-    <t>development, technology</t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and principles, CBDR</t>
-  </si>
-  <si>
     <t>support</t>
+  </si>
+  <si>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>general normative statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expressing beliefs on the need for urgency. No specificy distribution or motivation highlighted. </t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>priority to worst off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prescribing the need for balance in future policy, no specification of distribution. </t>
+  </si>
+  <si>
+    <t>financial mechanisms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responsibilities </t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing a equity based distribution motivated by reducing inequalities, as defined in the paris agreement. </t>
+  </si>
+  <si>
+    <t>support should be based on individual country needs and support ownership, referring to differences between countries.</t>
+  </si>
+  <si>
+    <t>proportional to commitments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed countries need to increase their support , indicating value judgement that it is desirable to help the worst off. Essentially following a target, thus commitments. </t>
+  </si>
+  <si>
+    <t>equality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all developing countries should have acces to support provided by a multilateral supporting mechanism, equal access, motivated by an egalitarian idea.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription on the need for guaranted implementation, following proportions. No specific unit of distribution mentioned or specific motivation found. </t>
   </si>
 </sst>
 </file>
@@ -648,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,7 +652,7 @@
     <col min="1" max="1" width="36.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -673,395 +666,408 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
         <v>42</v>
       </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
         <v>66</v>
       </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>36</v>
+      <c r="B29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/HLS_man/COP22/COP22_man_thailand.xlsx
+++ b/HLS_man/COP22/COP22_man_thailand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB2B25-A3D3-479A-A795-ACC1EE2ADB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59D0266-C480-4AC8-BD02-826180B95916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>COP22_thailand</t>
   </si>
@@ -211,9 +211,6 @@
     <t>egalitarian</t>
   </si>
   <si>
-    <t xml:space="preserve">Prescribing the need for a fair process and balance of all issues. </t>
-  </si>
-  <si>
     <t>adaptation, mitigation</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
   </si>
   <si>
     <t xml:space="preserve">prescribing the need for balance in future policy, no specification of distribution. </t>
-  </si>
-  <si>
-    <t>financial mechanisms</t>
   </si>
   <si>
     <t xml:space="preserve">responsibilities </t>
@@ -643,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -737,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -746,10 +740,10 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -776,13 +770,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
         <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
@@ -819,7 +813,7 @@
         <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -829,21 +823,6 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="15" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -853,19 +832,19 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -887,16 +866,16 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -913,7 +892,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -938,19 +917,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -975,7 +954,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -1000,19 +979,19 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
         <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1039,19 +1018,19 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
